--- a/corpusStatistics.xlsx
+++ b/corpusStatistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/github/Urdu_Fake_News/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37B839C-CAE5-6945-99A3-D02F679AFD58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9319945-B70B-464F-88A9-D91DA4F2F07B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" xr2:uid="{EA2BB066-887D-5345-B8E2-66447FF33CE3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{EA2BB066-887D-5345-B8E2-66447FF33CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -69,19 +69,22 @@
     <t>Overlap</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Vocabulary overlap within each category for Training Set</t>
   </si>
   <si>
     <t>Vocabulary overlap within each category for Testing Set</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -113,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -136,11 +139,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -165,6 +205,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D547085A-BE49-0547-903C-FA32576462BF}">
-  <dimension ref="B2:N20"/>
+  <dimension ref="B2:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,7 +560,7 @@
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -499,17 +568,17 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -519,19 +588,19 @@
         <v>6</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -547,312 +616,531 @@
       <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="H5" s="7" t="s">
+      <c r="C5" s="8">
+        <v>70</v>
+      </c>
+      <c r="D5" s="8">
+        <v>36</v>
+      </c>
+      <c r="E5" s="20">
+        <v>30</v>
+      </c>
+      <c r="F5" s="20">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J5" s="8">
+        <v>4640</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1939</v>
+      </c>
+      <c r="L5" s="15">
+        <v>34.65</v>
+      </c>
+      <c r="M5" s="20">
+        <v>2822</v>
+      </c>
+      <c r="N5" s="20">
+        <v>862</v>
+      </c>
+      <c r="O5" s="20">
+        <v>25.690799999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="H6" s="7" t="s">
+      <c r="C6" s="8">
+        <v>70</v>
+      </c>
+      <c r="D6" s="8">
+        <v>70</v>
+      </c>
+      <c r="E6" s="20">
+        <v>30</v>
+      </c>
+      <c r="F6" s="20">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J6" s="8">
+        <v>3825</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3454</v>
+      </c>
+      <c r="L6" s="8">
+        <v>55.633899999999997</v>
+      </c>
+      <c r="M6" s="20">
+        <v>2283</v>
+      </c>
+      <c r="N6" s="20">
+        <v>2091</v>
+      </c>
+      <c r="O6" s="20">
+        <v>72.408299999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="H7" s="7" t="s">
+      <c r="C7" s="8">
+        <v>70</v>
+      </c>
+      <c r="D7" s="8">
+        <v>70</v>
+      </c>
+      <c r="E7" s="20">
+        <v>30</v>
+      </c>
+      <c r="F7" s="20">
+        <v>30</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J7" s="8">
+        <v>3695</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3851</v>
+      </c>
+      <c r="L7" s="15">
+        <v>49.99</v>
+      </c>
+      <c r="M7" s="20">
+        <v>2919</v>
+      </c>
+      <c r="N7" s="20">
+        <v>2953</v>
+      </c>
+      <c r="O7" s="20">
+        <v>46.8367</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="H8" s="7" t="s">
+      <c r="C8" s="8">
+        <v>70</v>
+      </c>
+      <c r="D8" s="8">
+        <v>42</v>
+      </c>
+      <c r="E8" s="20">
+        <v>30</v>
+      </c>
+      <c r="F8" s="20">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J8" s="8">
+        <v>4948</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2178</v>
+      </c>
+      <c r="L8" s="8">
+        <v>34.5289</v>
+      </c>
+      <c r="M8" s="20">
+        <v>3365</v>
+      </c>
+      <c r="N8" s="20">
+        <v>536</v>
+      </c>
+      <c r="O8" s="21">
+        <v>13.930999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="H9" s="7" t="s">
+      <c r="C9" s="8">
+        <v>70</v>
+      </c>
+      <c r="D9" s="8">
+        <v>70</v>
+      </c>
+      <c r="E9" s="20">
+        <v>3</v>
+      </c>
+      <c r="F9" s="20">
+        <v>30</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J9" s="8">
+        <v>4494</v>
+      </c>
+      <c r="K9" s="8">
+        <v>4679</v>
+      </c>
+      <c r="L9" s="8">
+        <v>56.535800000000002</v>
+      </c>
+      <c r="M9" s="20">
+        <v>2448</v>
+      </c>
+      <c r="N9" s="20">
+        <v>2458</v>
+      </c>
+      <c r="O9" s="20">
+        <v>56.491199999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <f>SUM(C5:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
+        <v>350</v>
+      </c>
+      <c r="D10" s="6">
         <f t="shared" ref="D10:F10" si="0">SUM(D5:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
+        <v>288</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
+        <v>123</v>
+      </c>
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="6">
+        <v>13250</v>
+      </c>
+      <c r="K10" s="6">
+        <v>10115</v>
+      </c>
+      <c r="L10" s="19">
+        <v>47.375999999999998</v>
+      </c>
+      <c r="M10" s="6">
+        <v>8848</v>
+      </c>
+      <c r="N10" s="6">
+        <v>6110</v>
+      </c>
+      <c r="O10" s="6">
+        <v>45.1387</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="16"/>
+      <c r="I14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H15" s="17"/>
       <c r="I15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="I16" s="7" t="s">
+      <c r="C16" s="9">
+        <v>100</v>
+      </c>
+      <c r="D16" s="9">
+        <v>24.615500000000001</v>
+      </c>
+      <c r="E16" s="9">
+        <v>22.4925</v>
+      </c>
+      <c r="F16" s="9">
+        <v>22.598099999999999</v>
+      </c>
+      <c r="G16" s="9">
+        <v>23.5456</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="J16" s="9">
+        <v>100</v>
+      </c>
+      <c r="K16" s="9">
+        <v>20.281500000000001</v>
+      </c>
+      <c r="L16" s="9">
+        <v>17.597100000000001</v>
+      </c>
+      <c r="M16" s="9">
+        <v>20.6798</v>
+      </c>
+      <c r="N16" s="9">
+        <v>23.267600000000002</v>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="I17" s="7" t="s">
+      <c r="C17" s="9">
+        <v>24.615500000000001</v>
+      </c>
+      <c r="D17" s="9">
+        <v>100</v>
+      </c>
+      <c r="E17" s="9">
+        <v>21.806699999999999</v>
+      </c>
+      <c r="F17" s="14">
+        <v>21.308599999999998</v>
+      </c>
+      <c r="G17" s="14">
+        <v>23.283000000000001</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="J17" s="9">
+        <v>20.281500000000001</v>
+      </c>
+      <c r="K17" s="9">
+        <v>100</v>
+      </c>
+      <c r="L17" s="9">
+        <v>16.195499999999999</v>
+      </c>
+      <c r="M17" s="14">
+        <v>18.556000000000001</v>
+      </c>
+      <c r="N17" s="9">
+        <v>21.795100000000001</v>
+      </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="I18" s="7" t="s">
+      <c r="C18" s="9">
+        <v>22.4925</v>
+      </c>
+      <c r="D18" s="9">
+        <v>21.806699999999999</v>
+      </c>
+      <c r="E18" s="9">
+        <v>100</v>
+      </c>
+      <c r="F18" s="14">
+        <v>21.121099999999998</v>
+      </c>
+      <c r="G18" s="9">
+        <v>20.010999999999999</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="J18" s="9">
+        <v>17.597100000000001</v>
+      </c>
+      <c r="K18" s="9">
+        <v>16.195499999999999</v>
+      </c>
+      <c r="L18" s="9">
+        <v>100</v>
+      </c>
+      <c r="M18" s="9">
+        <v>18.464700000000001</v>
+      </c>
+      <c r="N18" s="9">
+        <v>18.151700000000002</v>
+      </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="I19" s="7" t="s">
+      <c r="C19" s="9">
+        <v>22.598099999999999</v>
+      </c>
+      <c r="D19" s="14">
+        <v>21.308599999999998</v>
+      </c>
+      <c r="E19" s="14">
+        <v>21.121099999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <v>100</v>
+      </c>
+      <c r="G19" s="9">
+        <v>19.300599999999999</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="J19" s="9">
+        <v>20.6798</v>
+      </c>
+      <c r="K19" s="14">
+        <v>18.556000000000001</v>
+      </c>
+      <c r="L19" s="9">
+        <v>18.464700000000001</v>
+      </c>
+      <c r="M19" s="9">
+        <v>100</v>
+      </c>
+      <c r="N19" s="9">
+        <v>20.106200000000001</v>
+      </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="I20" s="7" t="s">
+      <c r="C20" s="9">
+        <v>23.5456</v>
+      </c>
+      <c r="D20" s="14">
+        <v>23.283000000000001</v>
+      </c>
+      <c r="E20" s="14">
+        <v>20.010999999999999</v>
+      </c>
+      <c r="F20" s="9">
+        <v>19.300599999999999</v>
+      </c>
+      <c r="G20" s="9">
+        <v>100</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="J20" s="9">
+        <v>23.267600000000002</v>
+      </c>
+      <c r="K20" s="9">
+        <v>21.795100000000001</v>
+      </c>
+      <c r="L20" s="9">
+        <v>18.151700000000002</v>
+      </c>
+      <c r="M20" s="9">
+        <v>20.106200000000001</v>
+      </c>
+      <c r="N20" s="9">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -861,9 +1149,9 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="I2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/corpusStatistics.xlsx
+++ b/corpusStatistics.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/github/Urdu_Fake_News/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maaz Amjad\Desktop\Github\Urdu_Fake_News\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37B839C-CAE5-6945-99A3-D02F679AFD58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" xr2:uid="{EA2BB066-887D-5345-B8E2-66447FF33CE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -69,19 +68,22 @@
     <t>Overlap</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Vocabulary overlap within each category for Training Set</t>
   </si>
   <si>
     <t>Vocabulary overlap within each category for Testing Set</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -113,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -136,11 +138,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -153,9 +192,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -165,6 +201,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,380 +547,599 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D547085A-BE49-0547-903C-FA32576462BF}">
-  <dimension ref="B2:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4" t="s">
+      <c r="F3" s="18"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="H5" s="7" t="s">
+      <c r="C5" s="7">
+        <v>70</v>
+      </c>
+      <c r="D5" s="7">
+        <v>36</v>
+      </c>
+      <c r="E5" s="16">
+        <v>30</v>
+      </c>
+      <c r="F5" s="16">
+        <v>14</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="J5" s="7">
+        <v>4640</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1939</v>
+      </c>
+      <c r="L5" s="11">
+        <v>34.65</v>
+      </c>
+      <c r="M5" s="16">
+        <v>2822</v>
+      </c>
+      <c r="N5" s="16">
+        <v>862</v>
+      </c>
+      <c r="O5" s="16">
+        <v>25.690799999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="H6" s="7" t="s">
+      <c r="C6" s="7">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7">
+        <v>70</v>
+      </c>
+      <c r="E6" s="16">
+        <v>30</v>
+      </c>
+      <c r="F6" s="16">
+        <v>30</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="J6" s="7">
+        <v>3825</v>
+      </c>
+      <c r="K6" s="7">
+        <v>3454</v>
+      </c>
+      <c r="L6" s="7">
+        <v>55.633899999999997</v>
+      </c>
+      <c r="M6" s="16">
+        <v>2283</v>
+      </c>
+      <c r="N6" s="16">
+        <v>2091</v>
+      </c>
+      <c r="O6" s="16">
+        <v>72.408299999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="H7" s="7" t="s">
+      <c r="C7" s="7">
+        <v>70</v>
+      </c>
+      <c r="D7" s="7">
+        <v>70</v>
+      </c>
+      <c r="E7" s="16">
+        <v>30</v>
+      </c>
+      <c r="F7" s="16">
+        <v>30</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="J7" s="7">
+        <v>3695</v>
+      </c>
+      <c r="K7" s="7">
+        <v>3851</v>
+      </c>
+      <c r="L7" s="11">
+        <v>49.99</v>
+      </c>
+      <c r="M7" s="16">
+        <v>2919</v>
+      </c>
+      <c r="N7" s="16">
+        <v>2953</v>
+      </c>
+      <c r="O7" s="16">
+        <v>46.8367</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="H8" s="7" t="s">
+      <c r="C8" s="7">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7">
+        <v>42</v>
+      </c>
+      <c r="E8" s="16">
+        <v>30</v>
+      </c>
+      <c r="F8" s="16">
+        <v>8</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="J8" s="7">
+        <v>4948</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2178</v>
+      </c>
+      <c r="L8" s="7">
+        <v>34.5289</v>
+      </c>
+      <c r="M8" s="16">
+        <v>3365</v>
+      </c>
+      <c r="N8" s="16">
+        <v>536</v>
+      </c>
+      <c r="O8" s="17">
+        <v>13.930999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="H9" s="7" t="s">
+      <c r="C9" s="7">
+        <v>70</v>
+      </c>
+      <c r="D9" s="7">
+        <v>70</v>
+      </c>
+      <c r="E9" s="16">
+        <v>30</v>
+      </c>
+      <c r="F9" s="16">
+        <v>30</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
+      <c r="J9" s="7">
+        <v>4494</v>
+      </c>
+      <c r="K9" s="7">
+        <v>4679</v>
+      </c>
+      <c r="L9" s="7">
+        <v>56.535800000000002</v>
+      </c>
+      <c r="M9" s="16">
+        <v>2448</v>
+      </c>
+      <c r="N9" s="16">
+        <v>2458</v>
+      </c>
+      <c r="O9" s="16">
+        <v>56.491199999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <f>SUM(C5:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
+        <v>350</v>
+      </c>
+      <c r="D10" s="5">
         <f t="shared" ref="D10:F10" si="0">SUM(D5:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
+        <v>288</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
+        <v>150</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="5">
+        <v>13250</v>
+      </c>
+      <c r="K10" s="5">
+        <v>10115</v>
+      </c>
+      <c r="L10" s="15">
+        <v>47.375999999999998</v>
+      </c>
+      <c r="M10" s="5">
+        <v>8848</v>
+      </c>
+      <c r="N10" s="5">
+        <v>6110</v>
+      </c>
+      <c r="O10" s="5">
+        <v>45.1387</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="I16" s="7" t="s">
+      <c r="C16" s="8">
+        <v>100</v>
+      </c>
+      <c r="D16" s="8">
+        <v>24.615500000000001</v>
+      </c>
+      <c r="E16" s="8">
+        <v>22.4925</v>
+      </c>
+      <c r="F16" s="8">
+        <v>22.598099999999999</v>
+      </c>
+      <c r="G16" s="8">
+        <v>23.5456</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
+      <c r="J16" s="8">
+        <v>100</v>
+      </c>
+      <c r="K16" s="8">
+        <v>20.281500000000001</v>
+      </c>
+      <c r="L16" s="8">
+        <v>17.597100000000001</v>
+      </c>
+      <c r="M16" s="8">
+        <v>20.6798</v>
+      </c>
+      <c r="N16" s="8">
+        <v>23.267600000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="I17" s="7" t="s">
+      <c r="C17" s="8">
+        <v>24.615500000000001</v>
+      </c>
+      <c r="D17" s="8">
+        <v>100</v>
+      </c>
+      <c r="E17" s="8">
+        <v>21.806699999999999</v>
+      </c>
+      <c r="F17" s="10">
+        <v>21.308599999999998</v>
+      </c>
+      <c r="G17" s="10">
+        <v>23.283000000000001</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="J17" s="8">
+        <v>20.281500000000001</v>
+      </c>
+      <c r="K17" s="8">
+        <v>100</v>
+      </c>
+      <c r="L17" s="8">
+        <v>16.195499999999999</v>
+      </c>
+      <c r="M17" s="10">
+        <v>18.556000000000001</v>
+      </c>
+      <c r="N17" s="8">
+        <v>21.795100000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="I18" s="7" t="s">
+      <c r="C18" s="8">
+        <v>22.4925</v>
+      </c>
+      <c r="D18" s="8">
+        <v>21.806699999999999</v>
+      </c>
+      <c r="E18" s="8">
+        <v>100</v>
+      </c>
+      <c r="F18" s="10">
+        <v>21.121099999999998</v>
+      </c>
+      <c r="G18" s="8">
+        <v>20.010999999999999</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
+      <c r="J18" s="8">
+        <v>17.597100000000001</v>
+      </c>
+      <c r="K18" s="8">
+        <v>16.195499999999999</v>
+      </c>
+      <c r="L18" s="8">
+        <v>100</v>
+      </c>
+      <c r="M18" s="8">
+        <v>18.464700000000001</v>
+      </c>
+      <c r="N18" s="8">
+        <v>18.151700000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="I19" s="7" t="s">
+      <c r="C19" s="8">
+        <v>22.598099999999999</v>
+      </c>
+      <c r="D19" s="10">
+        <v>21.308599999999998</v>
+      </c>
+      <c r="E19" s="10">
+        <v>21.121099999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <v>100</v>
+      </c>
+      <c r="G19" s="8">
+        <v>19.300599999999999</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
+      <c r="J19" s="8">
+        <v>20.6798</v>
+      </c>
+      <c r="K19" s="10">
+        <v>18.556000000000001</v>
+      </c>
+      <c r="L19" s="8">
+        <v>18.464700000000001</v>
+      </c>
+      <c r="M19" s="8">
+        <v>100</v>
+      </c>
+      <c r="N19" s="8">
+        <v>20.106200000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="I20" s="7" t="s">
+      <c r="C20" s="8">
+        <v>23.5456</v>
+      </c>
+      <c r="D20" s="10">
+        <v>23.283000000000001</v>
+      </c>
+      <c r="E20" s="10">
+        <v>20.010999999999999</v>
+      </c>
+      <c r="F20" s="8">
+        <v>19.300599999999999</v>
+      </c>
+      <c r="G20" s="8">
+        <v>100</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="J20" s="8">
+        <v>23.267600000000002</v>
+      </c>
+      <c r="K20" s="8">
+        <v>21.795100000000001</v>
+      </c>
+      <c r="L20" s="8">
+        <v>18.151700000000002</v>
+      </c>
+      <c r="M20" s="8">
+        <v>20.106200000000001</v>
+      </c>
+      <c r="N20" s="8">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -861,9 +1148,9 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="I2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/corpusStatistics.xlsx
+++ b/corpusStatistics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maaz Amjad\Desktop\Github\Urdu_Fake_News\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maaz Amjad\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,41 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.0" hidden="1">Hoja1!$B$30</definedName>
+    <definedName name="_xlchart.1" hidden="1">Hoja1!$B$31</definedName>
+    <definedName name="_xlchart.10" hidden="1">Hoja1!$C$34:$G$34</definedName>
+    <definedName name="_xlchart.11" hidden="1">Hoja1!$B$30</definedName>
+    <definedName name="_xlchart.12" hidden="1">Hoja1!$B$31</definedName>
+    <definedName name="_xlchart.13" hidden="1">Hoja1!$B$32</definedName>
+    <definedName name="_xlchart.14" hidden="1">Hoja1!$B$33</definedName>
+    <definedName name="_xlchart.15" hidden="1">Hoja1!$B$34</definedName>
+    <definedName name="_xlchart.16" hidden="1">Hoja1!$C$29:$G$29</definedName>
+    <definedName name="_xlchart.17" hidden="1">Hoja1!$C$30:$G$30</definedName>
+    <definedName name="_xlchart.18" hidden="1">Hoja1!$C$31:$G$31</definedName>
+    <definedName name="_xlchart.19" hidden="1">Hoja1!$C$32:$G$32</definedName>
+    <definedName name="_xlchart.2" hidden="1">Hoja1!$B$32</definedName>
+    <definedName name="_xlchart.20" hidden="1">Hoja1!$C$33:$G$33</definedName>
+    <definedName name="_xlchart.21" hidden="1">Hoja1!$C$34:$G$34</definedName>
+    <definedName name="_xlchart.22" hidden="1">Hoja1!$B$30</definedName>
+    <definedName name="_xlchart.23" hidden="1">Hoja1!$B$31</definedName>
+    <definedName name="_xlchart.24" hidden="1">Hoja1!$B$32</definedName>
+    <definedName name="_xlchart.25" hidden="1">Hoja1!$B$33</definedName>
+    <definedName name="_xlchart.26" hidden="1">Hoja1!$B$34</definedName>
+    <definedName name="_xlchart.27" hidden="1">Hoja1!$C$29:$G$29</definedName>
+    <definedName name="_xlchart.28" hidden="1">Hoja1!$C$30:$G$30</definedName>
+    <definedName name="_xlchart.29" hidden="1">Hoja1!$C$31:$G$31</definedName>
+    <definedName name="_xlchart.3" hidden="1">Hoja1!$B$33</definedName>
+    <definedName name="_xlchart.30" hidden="1">Hoja1!$C$32:$G$32</definedName>
+    <definedName name="_xlchart.31" hidden="1">Hoja1!$C$33:$G$33</definedName>
+    <definedName name="_xlchart.32" hidden="1">Hoja1!$C$34:$G$34</definedName>
+    <definedName name="_xlchart.4" hidden="1">Hoja1!$B$34</definedName>
+    <definedName name="_xlchart.5" hidden="1">Hoja1!$C$29:$G$29</definedName>
+    <definedName name="_xlchart.6" hidden="1">Hoja1!$C$30:$G$30</definedName>
+    <definedName name="_xlchart.7" hidden="1">Hoja1!$C$31:$G$31</definedName>
+    <definedName name="_xlchart.8" hidden="1">Hoja1!$C$32:$G$32</definedName>
+    <definedName name="_xlchart.9" hidden="1">Hoja1!$C$33:$G$33</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -249,6 +284,6327 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Vocabulary overlap within each category for Testing Set</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$K$28:$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$30:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.281500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.597100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.6798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.267600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5434-424E-8C10-CE2AA540A868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Health</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$K$28:$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$31:$O$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.281500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.195499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000">
+                  <c:v>18.556000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.795100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5434-424E-8C10-CE2AA540A868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$K$28:$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$32:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.597100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.195499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.464700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.151700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5434-424E-8C10-CE2AA540A868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sports</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$K$28:$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$33:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>20.6798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.556000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>18.464700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>20.106200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5434-424E-8C10-CE2AA540A868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$K$28:$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$34:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23.267600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.795100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.151700000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.106200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5434-424E-8C10-CE2AA540A868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="383075567"/>
+        <c:axId val="383072655"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="383075567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383072655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383072655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> p</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ercent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383075567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Vocabulary overlap within each category for Training Set</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$29:$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.615500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.4925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.598099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.5456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2F7-4CFB-84BE-A13DB5DC4403}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Health</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$29:$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$31:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.615500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.806699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000">
+                  <c:v>21.308599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000">
+                  <c:v>23.283000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2F7-4CFB-84BE-A13DB5DC4403}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$29:$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$32:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.4925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.806699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000">
+                  <c:v>21.121099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.010999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F2F7-4CFB-84BE-A13DB5DC4403}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sports</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$29:$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$33:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>22.598099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.308599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.121099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>19.300599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F2F7-4CFB-84BE-A13DB5DC4403}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$29:$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$34:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>23.5456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.283000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>19.300599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F2F7-4CFB-84BE-A13DB5DC4403}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="462128511"/>
+        <c:axId val="462129343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="462128511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> percent</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462129343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="462129343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462128511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Vocabulary overlap within each category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$J$2:$O$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Overlap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Overlap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>34.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2822</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.690799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AD8-4779-8565-74B46E4D38F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Health</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$J$2:$O$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Overlap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Overlap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$6:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2283</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.408299999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1AD8-4779-8565-74B46E4D38F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$J$2:$O$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Overlap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Overlap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3851</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>49.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.8367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1AD8-4779-8565-74B46E4D38F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sports</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$J$2:$O$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Overlap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Overlap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$8:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>13.930999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1AD8-4779-8565-74B46E4D38F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$J$2:$O$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Overlap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Overlap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$9:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2458</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.491199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1AD8-4779-8565-74B46E4D38F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$J$2:$O$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Overlap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Overlap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$10:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10115</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>47.375999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.1387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1AD8-4779-8565-74B46E4D38F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="560427215"/>
+        <c:axId val="560428047"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="560427215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560428047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="560428047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560427215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="4000"/>
+        <c:minorUnit val="300"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$C$2:$F$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6279-4C69-AC90-041DBBD9A6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Health</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$C$2:$F$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6279-4C69-AC90-041DBBD9A6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$C$2:$F$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6279-4C69-AC90-041DBBD9A6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sports</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$C$2:$F$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6279-4C69-AC90-041DBBD9A6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$C$2:$F$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6279-4C69-AC90-041DBBD9A6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$C$2:$F$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6279-4C69-AC90-041DBBD9A6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="467923103"/>
+        <c:axId val="467921023"/>
+        <c:axId val="306882319"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="467923103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467921023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="467921023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467923103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="306882319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467921023"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>833436</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>804862</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -548,10 +6904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O20"/>
+  <dimension ref="B2:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,7 +7057,7 @@
         <v>3454</v>
       </c>
       <c r="L6" s="7">
-        <v>55.633899999999997</v>
+        <v>55.63</v>
       </c>
       <c r="M6" s="16">
         <v>2283</v>
@@ -777,7 +7133,7 @@
         <v>2178</v>
       </c>
       <c r="L8" s="7">
-        <v>34.5289</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="M8" s="16">
         <v>3365</v>
@@ -815,7 +7171,7 @@
         <v>4679</v>
       </c>
       <c r="L9" s="7">
-        <v>56.535800000000002</v>
+        <v>56.53</v>
       </c>
       <c r="M9" s="16">
         <v>2448</v>
@@ -881,270 +7237,270 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="19" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="21"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="5" t="s">
+      <c r="I29" s="13"/>
+      <c r="J29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="M29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="N29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="O29" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C30" s="8">
         <v>100</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D30" s="8">
         <v>24.615500000000001</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E30" s="8">
         <v>22.4925</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F30" s="8">
         <v>22.598099999999999</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G30" s="8">
         <v>23.5456</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="5" t="s">
+      <c r="I30" s="14"/>
+      <c r="J30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K30" s="8">
         <v>100</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L30" s="8">
         <v>20.281500000000001</v>
       </c>
-      <c r="L16" s="8">
+      <c r="M30" s="8">
         <v>17.597100000000001</v>
       </c>
-      <c r="M16" s="8">
+      <c r="N30" s="8">
         <v>20.6798</v>
       </c>
-      <c r="N16" s="8">
+      <c r="O30" s="8">
         <v>23.267600000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C31" s="8">
         <v>24.615500000000001</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D31" s="8">
         <v>100</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E31" s="8">
         <v>21.806699999999999</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F31" s="10">
         <v>21.308599999999998</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G31" s="10">
         <v>23.283000000000001</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="5" t="s">
+      <c r="I31" s="14"/>
+      <c r="J31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="8">
+      <c r="K31" s="8">
         <v>20.281500000000001</v>
       </c>
-      <c r="K17" s="8">
+      <c r="L31" s="8">
         <v>100</v>
       </c>
-      <c r="L17" s="8">
+      <c r="M31" s="8">
         <v>16.195499999999999</v>
       </c>
-      <c r="M17" s="10">
+      <c r="N31" s="10">
         <v>18.556000000000001</v>
       </c>
-      <c r="N17" s="8">
+      <c r="O31" s="8">
         <v>21.795100000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C32" s="8">
         <v>22.4925</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D32" s="8">
         <v>21.806699999999999</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E32" s="8">
         <v>100</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F32" s="10">
         <v>21.121099999999998</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G32" s="8">
         <v>20.010999999999999</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="5" t="s">
+      <c r="I32" s="14"/>
+      <c r="J32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="8">
+      <c r="K32" s="8">
         <v>17.597100000000001</v>
       </c>
-      <c r="K18" s="8">
+      <c r="L32" s="8">
         <v>16.195499999999999</v>
       </c>
-      <c r="L18" s="8">
+      <c r="M32" s="8">
         <v>100</v>
       </c>
-      <c r="M18" s="8">
+      <c r="N32" s="8">
         <v>18.464700000000001</v>
       </c>
-      <c r="N18" s="8">
+      <c r="O32" s="8">
         <v>18.151700000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C33" s="8">
         <v>22.598099999999999</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D33" s="10">
         <v>21.308599999999998</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E33" s="10">
         <v>21.121099999999998</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F33" s="8">
         <v>100</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G33" s="8">
         <v>19.300599999999999</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="5" t="s">
+      <c r="I33" s="14"/>
+      <c r="J33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K33" s="8">
         <v>20.6798</v>
       </c>
-      <c r="K19" s="10">
+      <c r="L33" s="10">
         <v>18.556000000000001</v>
       </c>
-      <c r="L19" s="8">
+      <c r="M33" s="8">
         <v>18.464700000000001</v>
       </c>
-      <c r="M19" s="8">
+      <c r="N33" s="8">
         <v>100</v>
       </c>
-      <c r="N19" s="8">
+      <c r="O33" s="8">
         <v>20.106200000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C34" s="8">
         <v>23.5456</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D34" s="10">
         <v>23.283000000000001</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E34" s="10">
         <v>20.010999999999999</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F34" s="8">
         <v>19.300599999999999</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G34" s="8">
         <v>100</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="5" t="s">
+      <c r="I34" s="14"/>
+      <c r="J34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="8">
+      <c r="K34" s="8">
         <v>23.267600000000002</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L34" s="8">
         <v>21.795100000000001</v>
       </c>
-      <c r="L20" s="8">
+      <c r="M34" s="8">
         <v>18.151700000000002</v>
       </c>
-      <c r="M20" s="8">
+      <c r="N34" s="8">
         <v>20.106200000000001</v>
       </c>
-      <c r="N20" s="8">
+      <c r="O34" s="8">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="J28:O28"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B2:F2"/>
@@ -1153,5 +7509,6 @@
     <mergeCell ref="I2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/corpusStatistics.xlsx
+++ b/corpusStatistics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maaz Amjad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maaz Amjad\Desktop\Github\Urdu_Fake_News\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,41 +14,6 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.0" hidden="1">Hoja1!$B$30</definedName>
-    <definedName name="_xlchart.1" hidden="1">Hoja1!$B$31</definedName>
-    <definedName name="_xlchart.10" hidden="1">Hoja1!$C$34:$G$34</definedName>
-    <definedName name="_xlchart.11" hidden="1">Hoja1!$B$30</definedName>
-    <definedName name="_xlchart.12" hidden="1">Hoja1!$B$31</definedName>
-    <definedName name="_xlchart.13" hidden="1">Hoja1!$B$32</definedName>
-    <definedName name="_xlchart.14" hidden="1">Hoja1!$B$33</definedName>
-    <definedName name="_xlchart.15" hidden="1">Hoja1!$B$34</definedName>
-    <definedName name="_xlchart.16" hidden="1">Hoja1!$C$29:$G$29</definedName>
-    <definedName name="_xlchart.17" hidden="1">Hoja1!$C$30:$G$30</definedName>
-    <definedName name="_xlchart.18" hidden="1">Hoja1!$C$31:$G$31</definedName>
-    <definedName name="_xlchart.19" hidden="1">Hoja1!$C$32:$G$32</definedName>
-    <definedName name="_xlchart.2" hidden="1">Hoja1!$B$32</definedName>
-    <definedName name="_xlchart.20" hidden="1">Hoja1!$C$33:$G$33</definedName>
-    <definedName name="_xlchart.21" hidden="1">Hoja1!$C$34:$G$34</definedName>
-    <definedName name="_xlchart.22" hidden="1">Hoja1!$B$30</definedName>
-    <definedName name="_xlchart.23" hidden="1">Hoja1!$B$31</definedName>
-    <definedName name="_xlchart.24" hidden="1">Hoja1!$B$32</definedName>
-    <definedName name="_xlchart.25" hidden="1">Hoja1!$B$33</definedName>
-    <definedName name="_xlchart.26" hidden="1">Hoja1!$B$34</definedName>
-    <definedName name="_xlchart.27" hidden="1">Hoja1!$C$29:$G$29</definedName>
-    <definedName name="_xlchart.28" hidden="1">Hoja1!$C$30:$G$30</definedName>
-    <definedName name="_xlchart.29" hidden="1">Hoja1!$C$31:$G$31</definedName>
-    <definedName name="_xlchart.3" hidden="1">Hoja1!$B$33</definedName>
-    <definedName name="_xlchart.30" hidden="1">Hoja1!$C$32:$G$32</definedName>
-    <definedName name="_xlchart.31" hidden="1">Hoja1!$C$33:$G$33</definedName>
-    <definedName name="_xlchart.32" hidden="1">Hoja1!$C$34:$G$34</definedName>
-    <definedName name="_xlchart.4" hidden="1">Hoja1!$B$34</definedName>
-    <definedName name="_xlchart.5" hidden="1">Hoja1!$C$29:$G$29</definedName>
-    <definedName name="_xlchart.6" hidden="1">Hoja1!$C$30:$G$30</definedName>
-    <definedName name="_xlchart.7" hidden="1">Hoja1!$C$31:$G$31</definedName>
-    <definedName name="_xlchart.8" hidden="1">Hoja1!$C$32:$G$32</definedName>
-    <definedName name="_xlchart.9" hidden="1">Hoja1!$C$33:$G$33</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>Total</t>
   </si>
@@ -110,6 +75,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>Vocabulary size each category</t>
   </si>
 </sst>
 </file>
@@ -214,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -255,6 +223,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -407,7 +381,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$30</c:f>
+              <c:f>Hoja1!$B$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -458,7 +432,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$K$28:$O$29</c:f>
+              <c:f>Hoja1!$C$64:$G$65</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -481,7 +455,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$30:$O$30</c:f>
+              <c:f>Hoja1!$C$66:$G$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -514,7 +488,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$31</c:f>
+              <c:f>Hoja1!$B$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -565,7 +539,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$K$28:$O$29</c:f>
+              <c:f>Hoja1!$C$64:$G$65</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -588,7 +562,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$31:$O$31</c:f>
+              <c:f>Hoja1!$C$67:$G$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -621,7 +595,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$32</c:f>
+              <c:f>Hoja1!$B$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -672,7 +646,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$K$28:$O$29</c:f>
+              <c:f>Hoja1!$C$64:$G$65</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -695,7 +669,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$32:$O$32</c:f>
+              <c:f>Hoja1!$C$68:$G$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -728,7 +702,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$33</c:f>
+              <c:f>Hoja1!$B$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -779,7 +753,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$K$28:$O$29</c:f>
+              <c:f>Hoja1!$C$64:$G$65</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -802,7 +776,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$33:$O$33</c:f>
+              <c:f>Hoja1!$C$69:$G$69</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -835,7 +809,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$34</c:f>
+              <c:f>Hoja1!$B$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -886,7 +860,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$K$28:$O$29</c:f>
+              <c:f>Hoja1!$C$64:$G$65</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -909,7 +883,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$34:$O$34</c:f>
+              <c:f>Hoja1!$C$70:$G$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1272,7 +1246,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" b="1"/>
               <a:t>Vocabulary overlap within each category for Training Set</a:t>
             </a:r>
           </a:p>
@@ -1312,7 +1286,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1320,7 +1294,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$30</c:f>
+              <c:f>Hoja1!$C$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1331,7 +1305,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1341,7 +1315,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$C$29:$G$29</c:f>
+              <c:f>Hoja1!$B$30:$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1364,7 +1338,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$30:$G$30</c:f>
+              <c:f>Hoja1!$C$30:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1397,7 +1371,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$31</c:f>
+              <c:f>Hoja1!$D$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1408,7 +1382,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1418,7 +1392,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$C$29:$G$29</c:f>
+              <c:f>Hoja1!$B$30:$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1441,7 +1415,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$31:$G$31</c:f>
+              <c:f>Hoja1!$D$30:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1474,88 +1448,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$32</c:f>
+              <c:f>Hoja1!$E$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Showbiz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$C$29:$G$29</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Business</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Health</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Showbiz</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sports</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Technology</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$C$32:$G$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>22.4925</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.806699999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.0000">
-                  <c:v>21.121099999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.010999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F2F7-4CFB-84BE-A13DB5DC4403}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$B$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sports</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1572,7 +1469,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$C$29:$G$29</c:f>
+              <c:f>Hoja1!$B$30:$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1595,7 +1492,86 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$33:$G$33</c:f>
+              <c:f>Hoja1!$E$30:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.4925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.806699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000">
+                  <c:v>21.121099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000">
+                  <c:v>20.010999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F2F7-4CFB-84BE-A13DB5DC4403}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sports</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$30:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$30:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1628,7 +1604,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$34</c:f>
+              <c:f>Hoja1!$G$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1639,7 +1615,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1649,7 +1627,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$C$29:$G$29</c:f>
+              <c:f>Hoja1!$B$30:$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1672,7 +1650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$34:$G$34</c:f>
+              <c:f>Hoja1!$G$30:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1682,7 +1660,7 @@
                 <c:pt idx="1">
                   <c:v>23.283000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="General">
                   <c:v>20.010999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
@@ -1708,7 +1686,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="462128511"/>
         <c:axId val="462129343"/>
       </c:barChart>
@@ -1718,68 +1697,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>in</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> percent</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1831,7 +1749,7 @@
           <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1922,7 +1840,7 @@
       </c:dTable>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1998,1007 +1916,6 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Vocabulary overlap within each category</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Business</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Hoja1!$J$2:$O$4</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Real</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Fake</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Overlap</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Real</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Fake</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Overlap</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Training</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Testing</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$J$5:$O$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4640</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1939</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.0000">
-                  <c:v>34.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2822</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>862</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.690799999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1AD8-4779-8565-74B46E4D38F4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Health</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Hoja1!$J$2:$O$4</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Real</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Fake</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Overlap</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Real</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Fake</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Overlap</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Training</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Testing</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$J$6:$O$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3825</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3454</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55.63</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2283</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2091</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72.408299999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1AD8-4779-8565-74B46E4D38F4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Showbiz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Hoja1!$J$2:$O$4</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Real</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Fake</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Overlap</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Real</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Fake</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Overlap</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Training</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Testing</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$J$7:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3695</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3851</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.0000">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2919</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2953</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>46.8367</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1AD8-4779-8565-74B46E4D38F4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$I$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sports</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Hoja1!$J$2:$O$4</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Real</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Fake</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Overlap</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Real</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Fake</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Overlap</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Training</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Testing</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$J$8:$O$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4948</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2178</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34.520000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3365</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>536</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0000">
-                  <c:v>13.930999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1AD8-4779-8565-74B46E4D38F4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$I$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Technology</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Hoja1!$J$2:$O$4</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Real</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Fake</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Overlap</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Real</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Fake</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Overlap</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Training</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Testing</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$J$9:$O$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4494</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4679</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2448</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2458</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56.491199999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1AD8-4779-8565-74B46E4D38F4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$I$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Totals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Hoja1!$J$2:$O$4</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Real</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Fake</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Overlap</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Real</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Fake</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Overlap</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Training</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Testing</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$J$10:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>13250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10115</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.0000">
-                  <c:v>47.375999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8848</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6110</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45.1387</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1AD8-4779-8565-74B46E4D38F4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="560427215"/>
-        <c:axId val="560428047"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="560427215"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="560428047"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="560428047"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="560427215"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="4000"/>
-        <c:minorUnit val="300"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4347,6 +3264,1324 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Vocabulary size in each category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$8:$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Business</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$L$5:$O$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$8:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E045-4CE0-B8B1-223605E0D7DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$9:$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$L$5:$O$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$9:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E045-4CE0-B8B1-223605E0D7DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$10:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$L$5:$O$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$10:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E045-4CE0-B8B1-223605E0D7DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$11:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Sports</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$L$5:$O$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$11:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E045-4CE0-B8B1-223605E0D7DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$12:$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$L$5:$O$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$12:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E045-4CE0-B8B1-223605E0D7DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$13:$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Totals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$L$5:$O$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Real</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fake</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Training</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Testing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$13:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E045-4CE0-B8B1-223605E0D7DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="553266128"/>
+        <c:axId val="553258640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="553266128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553258640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="553258640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553266128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1000"/>
+        <c:minorUnit val="200"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Vocabulary overlap within each category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$N$35:$N$37</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Vocabulary overlap within each category</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Training</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Overlap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$M$38:$M$43</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Technology</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Totals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$N$38:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>34.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.63</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>49.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.53</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>47.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-327F-4AC1-A453-5772694B51F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$O$35:$O$37</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Vocabulary overlap within each category</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Overlap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$M$38:$M$43</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Showbiz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Technology</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Totals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$O$38:$O$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.83</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000">
+                  <c:v>13.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-327F-4AC1-A453-5772694B51F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="547023136"/>
+        <c:axId val="547032704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="547023136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547032704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547032704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>in percents</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547023136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4388,13 +4623,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -4428,10 +4660,13 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -4504,6 +4739,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
   <cs:axisTitle>
@@ -5007,7 +5282,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5211,495 +5486,6 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -5724,17 +5510,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5743,12 +5529,83 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
@@ -5756,86 +5613,23 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5844,24 +5638,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5869,19 +5666,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5889,17 +5678,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -5908,9 +5697,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5919,14 +5711,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5935,7 +5727,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -5944,7 +5739,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5965,7 +5760,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -5974,13 +5772,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6482,19 +6286,1025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6546,36 +7356,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>804862</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>747712</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -6598,7 +7378,67 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6904,56 +7744,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O34"/>
+  <dimension ref="A2:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="I2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -6971,27 +7793,6 @@
       <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -7009,27 +7810,13 @@
       <c r="F5" s="16">
         <v>14</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="7">
-        <v>4640</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1939</v>
-      </c>
-      <c r="L5" s="11">
-        <v>34.65</v>
-      </c>
-      <c r="M5" s="16">
-        <v>2822</v>
-      </c>
-      <c r="N5" s="16">
-        <v>862</v>
-      </c>
-      <c r="O5" s="16">
-        <v>25.690799999999999</v>
-      </c>
+      <c r="K5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -7047,27 +7834,15 @@
       <c r="F6" s="16">
         <v>30</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="7">
-        <v>3825</v>
-      </c>
-      <c r="K6" s="7">
-        <v>3454</v>
-      </c>
-      <c r="L6" s="7">
-        <v>55.63</v>
-      </c>
-      <c r="M6" s="16">
-        <v>2283</v>
-      </c>
-      <c r="N6" s="16">
-        <v>2091</v>
-      </c>
-      <c r="O6" s="16">
-        <v>72.408299999999997</v>
-      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -7085,26 +7860,20 @@
       <c r="F7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="7">
-        <v>3695</v>
-      </c>
-      <c r="K7" s="7">
-        <v>3851</v>
-      </c>
-      <c r="L7" s="11">
-        <v>49.99</v>
-      </c>
-      <c r="M7" s="16">
-        <v>2919</v>
-      </c>
-      <c r="N7" s="16">
-        <v>2953</v>
-      </c>
-      <c r="O7" s="16">
-        <v>46.8367</v>
+      <c r="K7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -7123,26 +7892,20 @@
       <c r="F8" s="16">
         <v>8</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="7">
-        <v>4948</v>
-      </c>
-      <c r="K8" s="7">
-        <v>2178</v>
+      <c r="K8" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="L8" s="7">
-        <v>34.520000000000003</v>
-      </c>
-      <c r="M8" s="16">
-        <v>3365</v>
+        <v>4640</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1939</v>
       </c>
       <c r="N8" s="16">
-        <v>536</v>
-      </c>
-      <c r="O8" s="17">
-        <v>13.930999999999999</v>
+        <v>2822</v>
+      </c>
+      <c r="O8" s="16">
+        <v>862</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -7161,26 +7924,20 @@
       <c r="F9" s="16">
         <v>30</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="7">
-        <v>4494</v>
-      </c>
-      <c r="K9" s="7">
-        <v>4679</v>
+      <c r="K9" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="L9" s="7">
-        <v>56.53</v>
-      </c>
-      <c r="M9" s="16">
-        <v>2448</v>
+        <v>3825</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3454</v>
       </c>
       <c r="N9" s="16">
-        <v>2458</v>
+        <v>2283</v>
       </c>
       <c r="O9" s="16">
-        <v>56.491199999999999</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -7203,67 +7960,98 @@
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="5">
-        <v>13250</v>
-      </c>
-      <c r="K10" s="5">
-        <v>10115</v>
-      </c>
-      <c r="L10" s="15">
-        <v>47.375999999999998</v>
-      </c>
-      <c r="M10" s="5">
-        <v>8848</v>
-      </c>
-      <c r="N10" s="5">
-        <v>6110</v>
-      </c>
-      <c r="O10" s="5">
-        <v>45.1387</v>
+      <c r="K10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="7">
+        <v>3695</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3851</v>
+      </c>
+      <c r="N10" s="16">
+        <v>2919</v>
+      </c>
+      <c r="O10" s="16">
+        <v>2953</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
+      <c r="K11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="7">
+        <v>4948</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2178</v>
+      </c>
+      <c r="N11" s="16">
+        <v>3365</v>
+      </c>
+      <c r="O11" s="16">
+        <v>536</v>
+      </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7">
+        <v>4494</v>
+      </c>
+      <c r="M12" s="7">
+        <v>4679</v>
+      </c>
+      <c r="N12" s="16">
+        <v>2448</v>
+      </c>
+      <c r="O12" s="16">
+        <v>2458</v>
+      </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="5">
+        <v>13250</v>
+      </c>
+      <c r="M13" s="5">
+        <v>10115</v>
+      </c>
+      <c r="N13" s="5">
+        <v>8848</v>
+      </c>
+      <c r="O13" s="5">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>2</v>
       </c>
@@ -7282,27 +8070,8 @@
       <c r="G29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>7</v>
       </c>
@@ -7321,27 +8090,8 @@
       <c r="G30" s="8">
         <v>23.5456</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="8">
-        <v>100</v>
-      </c>
-      <c r="L30" s="8">
-        <v>20.281500000000001</v>
-      </c>
-      <c r="M30" s="8">
-        <v>17.597100000000001</v>
-      </c>
-      <c r="N30" s="8">
-        <v>20.6798</v>
-      </c>
-      <c r="O30" s="8">
-        <v>23.267600000000002</v>
-      </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>8</v>
       </c>
@@ -7360,27 +8110,8 @@
       <c r="G31" s="10">
         <v>23.283000000000001</v>
       </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K31" s="8">
-        <v>20.281500000000001</v>
-      </c>
-      <c r="L31" s="8">
-        <v>100</v>
-      </c>
-      <c r="M31" s="8">
-        <v>16.195499999999999</v>
-      </c>
-      <c r="N31" s="10">
-        <v>18.556000000000001</v>
-      </c>
-      <c r="O31" s="8">
-        <v>21.795100000000001</v>
-      </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>9</v>
       </c>
@@ -7398,25 +8129,6 @@
       </c>
       <c r="G32" s="8">
         <v>20.010999999999999</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="8">
-        <v>17.597100000000001</v>
-      </c>
-      <c r="L32" s="8">
-        <v>16.195499999999999</v>
-      </c>
-      <c r="M32" s="8">
-        <v>100</v>
-      </c>
-      <c r="N32" s="8">
-        <v>18.464700000000001</v>
-      </c>
-      <c r="O32" s="8">
-        <v>18.151700000000002</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -7438,25 +8150,6 @@
       <c r="G33" s="8">
         <v>19.300599999999999</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="8">
-        <v>20.6798</v>
-      </c>
-      <c r="L33" s="10">
-        <v>18.556000000000001</v>
-      </c>
-      <c r="M33" s="8">
-        <v>18.464700000000001</v>
-      </c>
-      <c r="N33" s="8">
-        <v>100</v>
-      </c>
-      <c r="O33" s="8">
-        <v>20.106200000000001</v>
-      </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
@@ -7477,36 +8170,252 @@
       <c r="G34" s="8">
         <v>100</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="5" t="s">
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M35" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="22"/>
+      <c r="O35" s="23"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M36" s="18"/>
+      <c r="N36" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="11">
+        <v>34.65</v>
+      </c>
+      <c r="O38" s="16">
+        <v>25.69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N39" s="7">
+        <v>55.63</v>
+      </c>
+      <c r="O39" s="16">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40" s="11">
+        <v>49.99</v>
+      </c>
+      <c r="O40" s="16">
+        <v>46.83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="7">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="O41" s="17">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="8">
+      <c r="N42" s="7">
+        <v>56.53</v>
+      </c>
+      <c r="O42" s="16">
+        <v>56.49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N43" s="15">
+        <v>47.37</v>
+      </c>
+      <c r="O43" s="5">
+        <v>45.13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="B64" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="23"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="8">
+        <v>100</v>
+      </c>
+      <c r="D66" s="8">
+        <v>20.281500000000001</v>
+      </c>
+      <c r="E66" s="8">
+        <v>17.597100000000001</v>
+      </c>
+      <c r="F66" s="8">
+        <v>20.6798</v>
+      </c>
+      <c r="G66" s="8">
         <v>23.267600000000002</v>
       </c>
-      <c r="L34" s="8">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="8">
+        <v>20.281500000000001</v>
+      </c>
+      <c r="D67" s="8">
+        <v>100</v>
+      </c>
+      <c r="E67" s="8">
+        <v>16.195499999999999</v>
+      </c>
+      <c r="F67" s="10">
+        <v>18.556000000000001</v>
+      </c>
+      <c r="G67" s="8">
         <v>21.795100000000001</v>
       </c>
-      <c r="M34" s="8">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="8">
+        <v>17.597100000000001</v>
+      </c>
+      <c r="D68" s="8">
+        <v>16.195499999999999</v>
+      </c>
+      <c r="E68" s="8">
+        <v>100</v>
+      </c>
+      <c r="F68" s="8">
+        <v>18.464700000000001</v>
+      </c>
+      <c r="G68" s="8">
         <v>18.151700000000002</v>
       </c>
-      <c r="N34" s="8">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="8">
+        <v>20.6798</v>
+      </c>
+      <c r="D69" s="10">
+        <v>18.556000000000001</v>
+      </c>
+      <c r="E69" s="8">
+        <v>18.464700000000001</v>
+      </c>
+      <c r="F69" s="8">
+        <v>100</v>
+      </c>
+      <c r="G69" s="8">
         <v>20.106200000000001</v>
       </c>
-      <c r="O34" s="8">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="8">
+        <v>23.267600000000002</v>
+      </c>
+      <c r="D70" s="8">
+        <v>21.795100000000001</v>
+      </c>
+      <c r="E70" s="8">
+        <v>18.151700000000002</v>
+      </c>
+      <c r="F70" s="8">
+        <v>20.106200000000001</v>
+      </c>
+      <c r="G70" s="8">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B64:G64"/>
     <mergeCell ref="B28:G28"/>
-    <mergeCell ref="J28:O28"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="M35:O35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/corpusStatistics.xlsx
+++ b/corpusStatistics.xlsx
@@ -231,9 +231,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -241,6 +238,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1343,7 +1343,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24.615500000000001</c:v>
@@ -1423,7 +1423,7 @@
                   <c:v>24.615500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>21.806699999999999</c:v>
@@ -1503,7 +1503,7 @@
                   <c:v>21.806699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.0000">
                   <c:v>21.121099999999998</c:v>
@@ -1585,7 +1585,7 @@
                   <c:v>21.121099999999998</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>19.300599999999999</c:v>
@@ -1667,7 +1667,7 @@
                   <c:v>19.300599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3828,7 +3828,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4469,7 +4468,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7326,16 +7325,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>833436</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>441230</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>74519</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>25214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7746,8 +7745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7758,24 +7757,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -7810,13 +7809,13 @@
       <c r="F5" s="16">
         <v>14</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -7835,14 +7834,14 @@
         <v>30</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20" t="s">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="20"/>
+      <c r="O6" s="23"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -8042,14 +8041,14 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -8076,7 +8075,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D30" s="8">
         <v>24.615500000000001</v>
@@ -8099,7 +8098,7 @@
         <v>24.615500000000001</v>
       </c>
       <c r="D31" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E31" s="8">
         <v>21.806699999999999</v>
@@ -8122,7 +8121,7 @@
         <v>21.806699999999999</v>
       </c>
       <c r="E32" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="10">
         <v>21.121099999999998</v>
@@ -8145,7 +8144,7 @@
         <v>21.121099999999998</v>
       </c>
       <c r="F33" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="8">
         <v>19.300599999999999</v>
@@ -8168,15 +8167,15 @@
         <v>19.300599999999999</v>
       </c>
       <c r="G34" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M35" s="21" t="s">
+      <c r="M35" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N35" s="22"/>
-      <c r="O35" s="23"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="22"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M36" s="18"/>
@@ -8270,14 +8269,14 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="23"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="22"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
@@ -8407,15 +8406,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="M35:O35"/>
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="M35:O35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
